--- a/support_file/Trading_Calendar.xlsx
+++ b/support_file/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45807</v>
+        <v>45821</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45807</v>
+        <v>45821</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45807</v>
+        <v>45821</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A306"/>
+  <dimension ref="A1:A307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3601,6 +3601,11 @@
         <v>45807</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="6" t="n">
+        <v>45821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3612,7 +3617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1287"/>
+  <dimension ref="A1:A1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10057,6 +10062,16 @@
         <v>45807</v>
       </c>
     </row>
+    <row r="1288">
+      <c r="A1288" s="6" t="n">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="6" t="n">
+        <v>45821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10068,7 +10083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6156"/>
+  <dimension ref="A1:A6165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40858,6 +40873,51 @@
         <v>45807</v>
       </c>
     </row>
+    <row r="6157">
+      <c r="A6157" s="6" t="n">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="6158">
+      <c r="A6158" s="6" t="n">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="6159">
+      <c r="A6159" s="6" t="n">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="6160">
+      <c r="A6160" s="6" t="n">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="6161">
+      <c r="A6161" s="6" t="n">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="6162">
+      <c r="A6162" s="6" t="n">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="6163">
+      <c r="A6163" s="6" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="6164">
+      <c r="A6164" s="6" t="n">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="6165">
+      <c r="A6165" s="6" t="n">
+        <v>45821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/support_file/Trading_Calendar.xlsx
+++ b/support_file/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="307">
       <c r="A307" s="6" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1289"/>
+  <dimension ref="A1:A1290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10072,6 +10072,11 @@
         <v>45821</v>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" s="6" t="n">
+        <v>45828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10083,7 +10088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6165"/>
+  <dimension ref="A1:A6170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40918,6 +40923,31 @@
         <v>45821</v>
       </c>
     </row>
+    <row r="6166">
+      <c r="A6166" s="6" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="6167">
+      <c r="A6167" s="6" t="n">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="6168">
+      <c r="A6168" s="6" t="n">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="6169">
+      <c r="A6169" s="6" t="n">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="6170">
+      <c r="A6170" s="6" t="n">
+        <v>45828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/support_file/Trading_Calendar.xlsx
+++ b/support_file/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="307">
       <c r="A307" s="6" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1290"/>
+  <dimension ref="A1:A1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10077,6 +10077,11 @@
         <v>45828</v>
       </c>
     </row>
+    <row r="1291">
+      <c r="A1291" s="6" t="n">
+        <v>45835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10088,7 +10093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6170"/>
+  <dimension ref="A1:A6175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40948,6 +40953,31 @@
         <v>45828</v>
       </c>
     </row>
+    <row r="6171">
+      <c r="A6171" s="6" t="n">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="6172">
+      <c r="A6172" s="6" t="n">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="6173">
+      <c r="A6173" s="6" t="n">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="6174">
+      <c r="A6174" s="6" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="6175">
+      <c r="A6175" s="6" t="n">
+        <v>45835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
